--- a/goldfinger/cc_pattern/Veale's location listing.xlsx
+++ b/goldfinger/cc_pattern/Veale's location listing.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="28540" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="826">
   <si>
     <t>smoke-filled back room</t>
   </si>
@@ -1801,6 +1801,702 @@
   </si>
   <si>
     <t>coconut, rock, broken branch</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>-0.117647058824, 0.147058823529</t>
+  </si>
+  <si>
+    <t>-0.1, 0.114285714286</t>
+  </si>
+  <si>
+    <t>-0.153846153846, 0.192307692308</t>
+  </si>
+  <si>
+    <t>-0.0626262626263, 0.388888888889</t>
+  </si>
+  <si>
+    <t>-0.375, 0.375</t>
+  </si>
+  <si>
+    <t>-0.13, 0.18</t>
+  </si>
+  <si>
+    <t>-0.228571428571, 0.285714285714</t>
+  </si>
+  <si>
+    <t>0.2, 0.275</t>
+  </si>
+  <si>
+    <t>-0.0928571428571, 0.175</t>
+  </si>
+  <si>
+    <t>0.0, 0.0</t>
+  </si>
+  <si>
+    <t>0.0, 0.1</t>
+  </si>
+  <si>
+    <t>-0.111111111111, 0.155555555556</t>
+  </si>
+  <si>
+    <t>0.172727272727, 0.427272727273</t>
+  </si>
+  <si>
+    <t>-0.05, 0.1</t>
+  </si>
+  <si>
+    <t>-0.00416666666667, 0.220833333333</t>
+  </si>
+  <si>
+    <t>-0.0305555555556, 0.144444444444</t>
+  </si>
+  <si>
+    <t>-0.0727272727273, 0.145454545455</t>
+  </si>
+  <si>
+    <t>-0.11, 0.2</t>
+  </si>
+  <si>
+    <t>-0.107142857143, 0.303571428571</t>
+  </si>
+  <si>
+    <t>-0.108333333333, 0.15</t>
+  </si>
+  <si>
+    <t>-0.0444444444444, 0.0666666666667</t>
+  </si>
+  <si>
+    <t>-0.0236842105263, 0.0789473684211</t>
+  </si>
+  <si>
+    <t>-0.0944444444444, 0.127777777778</t>
+  </si>
+  <si>
+    <t>-0.195652173913, 0.278260869565</t>
+  </si>
+  <si>
+    <t>-0.185714285714, 0.228571428571</t>
+  </si>
+  <si>
+    <t>0.0777777777778, 0.176851851852</t>
+  </si>
+  <si>
+    <t>0.05, 0.1</t>
+  </si>
+  <si>
+    <t>0.126666666667, 0.353333333333</t>
+  </si>
+  <si>
+    <t>0.0875, 0.1</t>
+  </si>
+  <si>
+    <t>-0.164583333333, 0.216666666667</t>
+  </si>
+  <si>
+    <t>-0.1375, 0.333333333333</t>
+  </si>
+  <si>
+    <t>0.206666666667, 0.396666666667</t>
+  </si>
+  <si>
+    <t>0.0166666666667, 0.05</t>
+  </si>
+  <si>
+    <t>-0.1875, 0.229166666667</t>
+  </si>
+  <si>
+    <t>0.0846153846154, 0.369230769231</t>
+  </si>
+  <si>
+    <t>0.119791666667, 0.327083333333</t>
+  </si>
+  <si>
+    <t>-0.0230769230769, 0.261538461538</t>
+  </si>
+  <si>
+    <t>-0.07, 0.152</t>
+  </si>
+  <si>
+    <t>0.115384615385, 0.238461538462</t>
+  </si>
+  <si>
+    <t>-0.416666666667, 0.583333333333</t>
+  </si>
+  <si>
+    <t>0.0730769230769, 0.230769230769</t>
+  </si>
+  <si>
+    <t>-0.0927272727273, 0.3</t>
+  </si>
+  <si>
+    <t>-0.0941176470588, 0.152941176471</t>
+  </si>
+  <si>
+    <t>-0.047619047619, 0.220238095238</t>
+  </si>
+  <si>
+    <t>0.12, 0.26</t>
+  </si>
+  <si>
+    <t>-0.105, 0.14</t>
+  </si>
+  <si>
+    <t>-0.07, 0.14</t>
+  </si>
+  <si>
+    <t>-0.025, 0.05</t>
+  </si>
+  <si>
+    <t>-0.15, 0.23</t>
+  </si>
+  <si>
+    <t>-0.17, 0.193333333333</t>
+  </si>
+  <si>
+    <t>-0.143333333333, 0.206666666667</t>
+  </si>
+  <si>
+    <t>-0.0166666666667, 0.216666666667</t>
+  </si>
+  <si>
+    <t>-0.29, 0.43</t>
+  </si>
+  <si>
+    <t>-0.0222222222222, 0.0444444444444</t>
+  </si>
+  <si>
+    <t>0.0714876033058, 0.345454545455</t>
+  </si>
+  <si>
+    <t>0.0669191919192, 0.402777777778</t>
+  </si>
+  <si>
+    <t>0.0583333333333, 0.4</t>
+  </si>
+  <si>
+    <t>-0.0883333333333, 0.325</t>
+  </si>
+  <si>
+    <t>-0.0438888888889, 0.128888888889</t>
+  </si>
+  <si>
+    <t>-0.2, 0.34375</t>
+  </si>
+  <si>
+    <t>-0.15, 0.216666666667</t>
+  </si>
+  <si>
+    <t>0.0909090909091, 0.181818181818</t>
+  </si>
+  <si>
+    <t>-0.0702380952381, 0.157142857143</t>
+  </si>
+  <si>
+    <t>0.0875, 0.23125</t>
+  </si>
+  <si>
+    <t>-0.0520833333333, 0.0833333333333</t>
+  </si>
+  <si>
+    <t>-0.0772727272727, 0.25</t>
+  </si>
+  <si>
+    <t>-0.153125, 0.221875</t>
+  </si>
+  <si>
+    <t>-0.121428571429, 0.207142857143</t>
+  </si>
+  <si>
+    <t>-0.0048951048951, 0.3</t>
+  </si>
+  <si>
+    <t>-0.2175, 0.365</t>
+  </si>
+  <si>
+    <t>-0.0913978494624, 0.152688172043</t>
+  </si>
+  <si>
+    <t>-0.20625, 0.29375</t>
+  </si>
+  <si>
+    <t>-0.0273484848485, 0.331666666667</t>
+  </si>
+  <si>
+    <t>-0.08, 0.14</t>
+  </si>
+  <si>
+    <t>0.118181818182, 0.2</t>
+  </si>
+  <si>
+    <t>0.127272727273, 0.236363636364</t>
+  </si>
+  <si>
+    <t>-0.2375, 0.2875</t>
+  </si>
+  <si>
+    <t>-0.01, 0.24</t>
+  </si>
+  <si>
+    <t>0.0615384615385, 0.134615384615</t>
+  </si>
+  <si>
+    <t>0.125, 0.298333333333</t>
+  </si>
+  <si>
+    <t>0.0777777777778, 0.177777777778</t>
+  </si>
+  <si>
+    <t>0.0615384615385, 0.351282051282</t>
+  </si>
+  <si>
+    <t>-0.00454545454545, 0.181818181818</t>
+  </si>
+  <si>
+    <t>0.0227272727273, 0.240909090909</t>
+  </si>
+  <si>
+    <t>0.00909090909091, 0.0818181818182</t>
+  </si>
+  <si>
+    <t>0.212820512821, 0.412820512821</t>
+  </si>
+  <si>
+    <t>0.0777777777778, 0.311111111111</t>
+  </si>
+  <si>
+    <t>0.02, 0.06</t>
+  </si>
+  <si>
+    <t>-0.0333333333333, 0.288888888889</t>
+  </si>
+  <si>
+    <t>-0.147058823529, 0.188235294118</t>
+  </si>
+  <si>
+    <t>-0.0243055555556, 0.0416666666667</t>
+  </si>
+  <si>
+    <t>-0.173076923077, 0.238461538462</t>
+  </si>
+  <si>
+    <t>-0.0545454545455, 0.0909090909091</t>
+  </si>
+  <si>
+    <t>-0.186666666667, 0.23</t>
+  </si>
+  <si>
+    <t>-0.238235294118, 0.314705882353</t>
+  </si>
+  <si>
+    <t>-0.193333333333, 0.306666666667</t>
+  </si>
+  <si>
+    <t>-0.334210526316, 0.484210526316</t>
+  </si>
+  <si>
+    <t>-0.0803921568627, 0.166666666667</t>
+  </si>
+  <si>
+    <t>0.0230769230769, 0.153846153846</t>
+  </si>
+  <si>
+    <t>-0.1, 0.185714285714</t>
+  </si>
+  <si>
+    <t>0.0818181818182, 0.212121212121</t>
+  </si>
+  <si>
+    <t>0.158333333333, 0.235416666667</t>
+  </si>
+  <si>
+    <t>0.0954545454545, 0.136363636364</t>
+  </si>
+  <si>
+    <t>-0.109090909091, 0.163636363636</t>
+  </si>
+  <si>
+    <t>0.207692307692, 0.338461538462</t>
+  </si>
+  <si>
+    <t>-0.0346153846154, 0.117948717949</t>
+  </si>
+  <si>
+    <t>-0.128205128205, 0.205128205128</t>
+  </si>
+  <si>
+    <t>-0.244444444444, 0.333333333333</t>
+  </si>
+  <si>
+    <t>0.05, 0.216666666667</t>
+  </si>
+  <si>
+    <t>-0.0121212121212, 0.172727272727</t>
+  </si>
+  <si>
+    <t>-0.183333333333, 0.308333333333</t>
+  </si>
+  <si>
+    <t>0.01, 0.1875</t>
+  </si>
+  <si>
+    <t>-0.170138888889, 0.3125</t>
+  </si>
+  <si>
+    <t>-0.025, 0.1875</t>
+  </si>
+  <si>
+    <t>-0.149479166667, 0.275</t>
+  </si>
+  <si>
+    <t>-0.0666666666667, 0.111111111111</t>
+  </si>
+  <si>
+    <t>-0.0952380952381, 0.165476190476</t>
+  </si>
+  <si>
+    <t>-0.305, 0.465</t>
+  </si>
+  <si>
+    <t>0.1, 0.338461538462</t>
+  </si>
+  <si>
+    <t>0.0909090909091, 0.245454545455</t>
+  </si>
+  <si>
+    <t>-0.107142857143, 0.107142857143</t>
+  </si>
+  <si>
+    <t>-0.205, 0.49</t>
+  </si>
+  <si>
+    <t>-0.129166666667, 0.15</t>
+  </si>
+  <si>
+    <t>-0.141176470588, 0.211764705882</t>
+  </si>
+  <si>
+    <t>0.166666666667, 0.233333333333</t>
+  </si>
+  <si>
+    <t>-0.1, 0.163333333333</t>
+  </si>
+  <si>
+    <t>-0.0692307692308, 0.107692307692</t>
+  </si>
+  <si>
+    <t>-0.189583333333, 0.31875</t>
+  </si>
+  <si>
+    <t>0.0416666666667, 0.0833333333333</t>
+  </si>
+  <si>
+    <t>0.06, 0.28</t>
+  </si>
+  <si>
+    <t>0.0214285714286, 0.0428571428571</t>
+  </si>
+  <si>
+    <t>-0.233333333333, 0.39</t>
+  </si>
+  <si>
+    <t>0.0125, 0.0375</t>
+  </si>
+  <si>
+    <t>-0.241666666667, 0.358333333333</t>
+  </si>
+  <si>
+    <t>-0.1, 0.15</t>
+  </si>
+  <si>
+    <t>0.075, 0.1</t>
+  </si>
+  <si>
+    <t>-0.108333333333, 0.202777777778</t>
+  </si>
+  <si>
+    <t>0.07, 0.16</t>
+  </si>
+  <si>
+    <t>0.025, 0.06</t>
+  </si>
+  <si>
+    <t>0.0288888888889, 0.108888888889</t>
+  </si>
+  <si>
+    <t>-0.00625, 0.04375</t>
+  </si>
+  <si>
+    <t>0.0428571428571, 0.271428571429</t>
+  </si>
+  <si>
+    <t>0.0974358974359, 0.161538461538</t>
+  </si>
+  <si>
+    <t>-0.262878787879, 0.309090909091</t>
+  </si>
+  <si>
+    <t>0.0183333333333, 0.188333333333</t>
+  </si>
+  <si>
+    <t>-0.116666666667, 0.133333333333</t>
+  </si>
+  <si>
+    <t>-0.108333333333, 0.255</t>
+  </si>
+  <si>
+    <t>0.107142857143, 0.257142857143</t>
+  </si>
+  <si>
+    <t>3.46944695195e-18, 0.0916666666667</t>
+  </si>
+  <si>
+    <t>0.0375, 0.06875</t>
+  </si>
+  <si>
+    <t>0.069696969697, 0.193939393939</t>
+  </si>
+  <si>
+    <t>-0.06, 0.09</t>
+  </si>
+  <si>
+    <t>0.0363636363636, 0.208333333333</t>
+  </si>
+  <si>
+    <t>0.0833333333333, 0.166666666667</t>
+  </si>
+  <si>
+    <t>-0.103846153846, 0.287179487179</t>
+  </si>
+  <si>
+    <t>-0.17, 0.33</t>
+  </si>
+  <si>
+    <t>0.115384615385, 0.269230769231</t>
+  </si>
+  <si>
+    <t>-0.0642857142857, 0.164285714286</t>
+  </si>
+  <si>
+    <t>0.208333333333, 0.2875</t>
+  </si>
+  <si>
+    <t>-0.0678571428571, 0.160714285714</t>
+  </si>
+  <si>
+    <t>0.1, 0.24</t>
+  </si>
+  <si>
+    <t>0.0857142857143, 0.114285714286</t>
+  </si>
+  <si>
+    <t>-0.103985507246, 0.230434782609</t>
+  </si>
+  <si>
+    <t>-0.0769230769231, 0.161538461538</t>
+  </si>
+  <si>
+    <t>0.0647058823529, 0.135294117647</t>
+  </si>
+  <si>
+    <t>0.0555555555556, 0.111111111111</t>
+  </si>
+  <si>
+    <t>-0.025, 0.216666666667</t>
+  </si>
+  <si>
+    <t>0.0555555555556, 0.148148148148</t>
+  </si>
+  <si>
+    <t>-0.0636363636364, 0.109090909091</t>
+  </si>
+  <si>
+    <t>0.0337662337662, 0.114285714286</t>
+  </si>
+  <si>
+    <t>-0.0125, 0.05</t>
+  </si>
+  <si>
+    <t>0.0875, 0.2</t>
+  </si>
+  <si>
+    <t>-0.178571428571, 0.25</t>
+  </si>
+  <si>
+    <t>0.1, 0.2</t>
+  </si>
+  <si>
+    <t>0.05, 0.233333333333</t>
+  </si>
+  <si>
+    <t>0.0280303030303, 0.133333333333</t>
+  </si>
+  <si>
+    <t>-0.0576923076923, 0.141025641026</t>
+  </si>
+  <si>
+    <t>-0.0142857142857, 0.153571428571</t>
+  </si>
+  <si>
+    <t>0.065625, 0.133333333333</t>
+  </si>
+  <si>
+    <t>-0.025, 0.20625</t>
+  </si>
+  <si>
+    <t>-0.05, 0.075</t>
+  </si>
+  <si>
+    <t>0.03125, 0.10625</t>
+  </si>
+  <si>
+    <t>-0.0151515151515, 0.106060606061</t>
+  </si>
+  <si>
+    <t>0.0633333333333, 0.122222222222</t>
+  </si>
+  <si>
+    <t>-0.0142857142857, 0.0571428571429</t>
+  </si>
+  <si>
+    <t>-0.0857142857143, 0.142857142857</t>
+  </si>
+  <si>
+    <t>-0.0205882352941, 0.15</t>
+  </si>
+  <si>
+    <t>-0.0447368421053, 0.186842105263</t>
+  </si>
+  <si>
+    <t>0.15, 0.225</t>
+  </si>
+  <si>
+    <t>0.025, 0.2</t>
+  </si>
+  <si>
+    <t>0.277777777778, 0.383333333333</t>
+  </si>
+  <si>
+    <t>0.0214285714286, 0.178571428571</t>
+  </si>
+  <si>
+    <t>-0.0714285714286, 0.0714285714286</t>
+  </si>
+  <si>
+    <t>0.0166666666667, 0.3</t>
+  </si>
+  <si>
+    <t>-0.190972222222, 0.333333333333</t>
+  </si>
+  <si>
+    <t>-0.04, 0.08</t>
+  </si>
+  <si>
+    <t>0.05, 0.207142857143</t>
+  </si>
+  <si>
+    <t>0.0357142857143, 0.0714285714286</t>
+  </si>
+  <si>
+    <t>-0.25, 0.333333333333</t>
+  </si>
+  <si>
+    <t>0.15, 0.333333333333</t>
+  </si>
+  <si>
+    <t>-0.0566666666667, 0.223333333333</t>
+  </si>
+  <si>
+    <t>0.0111111111111, 0.0333333333333</t>
+  </si>
+  <si>
+    <t>-0.0166666666667, 0.291666666667</t>
+  </si>
+  <si>
+    <t>0.109090909091, 0.163636363636</t>
+  </si>
+  <si>
+    <t>0.0227272727273, 0.0454545454545</t>
+  </si>
+  <si>
+    <t>0.101388888889, 0.219444444444</t>
+  </si>
+  <si>
+    <t>-0.11875, 0.14375</t>
+  </si>
+  <si>
+    <t>0.15, 0.325</t>
+  </si>
+  <si>
+    <t>-0.142857142857, 0.178571428571</t>
+  </si>
+  <si>
+    <t>0.295833333333, 0.4125</t>
+  </si>
+  <si>
+    <t>0.0571428571429, 0.114285714286</t>
+  </si>
+  <si>
+    <t>0.16, 0.22</t>
+  </si>
+  <si>
+    <t>-0.217857142857, 0.332142857143</t>
+  </si>
+  <si>
+    <t>0.0916666666667, 0.4</t>
+  </si>
+  <si>
+    <t>-0.0857142857143, 0.128571428571</t>
+  </si>
+  <si>
+    <t>0.325, 0.4</t>
+  </si>
+  <si>
+    <t>0.0625, 0.125</t>
+  </si>
+  <si>
+    <t>0.025, 0.08</t>
+  </si>
+  <si>
+    <t>-0.275, 0.375</t>
+  </si>
+  <si>
+    <t>-0.00705128205128, 0.115384615385</t>
+  </si>
+  <si>
+    <t>-0.226666666667, 0.433333333333</t>
+  </si>
+  <si>
+    <t>-0.0416666666667, 0.0714285714286</t>
+  </si>
+  <si>
+    <t>0.15, 0.35</t>
+  </si>
+  <si>
+    <t>0.0166666666667, 0.133333333333</t>
   </si>
 </sst>
 </file>
@@ -2899,6 +3595,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3224,26 +3925,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:H272"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="39" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="67.625" style="12" customWidth="1"/>
     <col min="8" max="8" width="52" style="12" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="10" max="10" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="20">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>253</v>
       </c>
@@ -3268,8 +3970,14 @@
       <c r="H1" s="9" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="61">
+      <c r="I1" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>226</v>
       </c>
@@ -3291,8 +3999,14 @@
       <c r="H2" s="12" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="61">
+      <c r="I2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -3317,8 +4031,14 @@
       <c r="H3" s="12" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="61">
+      <c r="I3" t="s">
+        <v>595</v>
+      </c>
+      <c r="J3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -3343,8 +4063,14 @@
       <c r="H4" s="12" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="36">
+      <c r="I4" t="s">
+        <v>595</v>
+      </c>
+      <c r="J4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -3369,8 +4095,14 @@
       <c r="H5" s="12" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>596</v>
+      </c>
+      <c r="J5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -3395,8 +4127,14 @@
       <c r="H6" s="12" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>597</v>
+      </c>
+      <c r="J6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -3421,8 +4159,14 @@
       <c r="H7" s="12" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="36">
+      <c r="I7" t="s">
+        <v>595</v>
+      </c>
+      <c r="J7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -3447,8 +4191,14 @@
       <c r="H8" s="12" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>595</v>
+      </c>
+      <c r="J8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -3473,8 +4223,14 @@
       <c r="H9" s="12" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="36">
+      <c r="I9" t="s">
+        <v>598</v>
+      </c>
+      <c r="J9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -3499,8 +4255,14 @@
       <c r="H10" s="12" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>595</v>
+      </c>
+      <c r="J10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -3525,8 +4287,14 @@
       <c r="H11" s="12" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="36">
+      <c r="I11" t="s">
+        <v>597</v>
+      </c>
+      <c r="J11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
@@ -3548,8 +4316,14 @@
       <c r="H12" s="12" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="31">
+      <c r="I12" t="s">
+        <v>595</v>
+      </c>
+      <c r="J12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -3574,8 +4348,14 @@
       <c r="H13" s="12" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="46">
+      <c r="I13" t="s">
+        <v>595</v>
+      </c>
+      <c r="J13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -3600,8 +4380,14 @@
       <c r="H14" s="12" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>599</v>
+      </c>
+      <c r="J14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
@@ -3623,8 +4409,14 @@
       <c r="H15" s="12" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="31">
+      <c r="I15" t="s">
+        <v>595</v>
+      </c>
+      <c r="J15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +4438,14 @@
       <c r="H16" s="12" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="46">
+      <c r="I16" t="s">
+        <v>600</v>
+      </c>
+      <c r="J16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>222</v>
       </c>
@@ -3672,8 +4470,14 @@
       <c r="H17" s="12" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="46">
+      <c r="I17" t="s">
+        <v>595</v>
+      </c>
+      <c r="J17" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3698,8 +4502,14 @@
       <c r="H18" s="12" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="36">
+      <c r="I18" t="s">
+        <v>595</v>
+      </c>
+      <c r="J18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
@@ -3721,8 +4531,14 @@
       <c r="H19" s="12" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="36">
+      <c r="I19" t="s">
+        <v>595</v>
+      </c>
+      <c r="J19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3747,8 +4563,14 @@
       <c r="H20" s="12" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="36">
+      <c r="I20" t="s">
+        <v>600</v>
+      </c>
+      <c r="J20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>230</v>
       </c>
@@ -3773,8 +4595,14 @@
       <c r="H21" s="12" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="31">
+      <c r="I21" t="s">
+        <v>595</v>
+      </c>
+      <c r="J21" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>224</v>
       </c>
@@ -3799,8 +4627,14 @@
       <c r="H22" s="12" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="61">
+      <c r="I22" t="s">
+        <v>595</v>
+      </c>
+      <c r="J22" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -3822,8 +4656,14 @@
       <c r="H23" s="12" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>595</v>
+      </c>
+      <c r="J23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>223</v>
       </c>
@@ -3848,8 +4688,14 @@
       <c r="H24" s="12" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="31">
+      <c r="I24" t="s">
+        <v>597</v>
+      </c>
+      <c r="J24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>212</v>
       </c>
@@ -3874,8 +4720,14 @@
       <c r="H25" s="12" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="76">
+      <c r="I25" t="s">
+        <v>595</v>
+      </c>
+      <c r="J25" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="79.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>201</v>
       </c>
@@ -3900,8 +4752,14 @@
       <c r="H26" s="12" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="31">
+      <c r="I26" t="s">
+        <v>595</v>
+      </c>
+      <c r="J26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>262</v>
       </c>
@@ -3926,8 +4784,14 @@
       <c r="H27" s="12" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="61">
+      <c r="I27" t="s">
+        <v>595</v>
+      </c>
+      <c r="J27" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -3952,8 +4816,14 @@
       <c r="H28" s="12" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="46">
+      <c r="I28" t="s">
+        <v>600</v>
+      </c>
+      <c r="J28" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -3972,8 +4842,14 @@
       <c r="F29" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="61">
+      <c r="I29" t="s">
+        <v>600</v>
+      </c>
+      <c r="J29" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>254</v>
       </c>
@@ -3989,8 +4865,14 @@
       <c r="F30" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="31">
+      <c r="I30" t="s">
+        <v>598</v>
+      </c>
+      <c r="J30" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>182</v>
       </c>
@@ -4009,8 +4891,14 @@
       <c r="F31" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="46">
+      <c r="I31" t="s">
+        <v>600</v>
+      </c>
+      <c r="J31" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -4026,8 +4914,14 @@
       <c r="F32" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="46">
+      <c r="I32" t="s">
+        <v>595</v>
+      </c>
+      <c r="J32" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>269</v>
       </c>
@@ -4043,8 +4937,14 @@
       <c r="F33" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="46">
+      <c r="I33" t="s">
+        <v>600</v>
+      </c>
+      <c r="J33" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -4060,8 +4960,14 @@
       <c r="F34" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34" t="s">
+        <v>599</v>
+      </c>
+      <c r="J34" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
@@ -4077,8 +4983,14 @@
       <c r="F35" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="61">
+      <c r="I35" t="s">
+        <v>595</v>
+      </c>
+      <c r="J35" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>251</v>
       </c>
@@ -4097,8 +5009,14 @@
       <c r="F36" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="61">
+      <c r="I36" t="s">
+        <v>595</v>
+      </c>
+      <c r="J36" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -4114,8 +5032,14 @@
       <c r="F37" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="61">
+      <c r="I37" t="s">
+        <v>598</v>
+      </c>
+      <c r="J37" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -4134,8 +5058,14 @@
       <c r="F38" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="46">
+      <c r="I38" t="s">
+        <v>598</v>
+      </c>
+      <c r="J38" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -4154,8 +5084,14 @@
       <c r="F39" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="I39" t="s">
+        <v>600</v>
+      </c>
+      <c r="J39" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>207</v>
       </c>
@@ -4171,8 +5107,14 @@
       <c r="F40" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="76">
+      <c r="I40" t="s">
+        <v>597</v>
+      </c>
+      <c r="J40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="79.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>192</v>
       </c>
@@ -4188,8 +5130,14 @@
       <c r="F41" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="46">
+      <c r="I41" t="s">
+        <v>595</v>
+      </c>
+      <c r="J41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
@@ -4208,8 +5156,14 @@
       <c r="F42" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="I42" t="s">
+        <v>596</v>
+      </c>
+      <c r="J42" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>246</v>
       </c>
@@ -4228,8 +5182,14 @@
       <c r="F43" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="46">
+      <c r="I43" t="s">
+        <v>600</v>
+      </c>
+      <c r="J43" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>228</v>
       </c>
@@ -4245,8 +5205,14 @@
       <c r="F44" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="I44" t="s">
+        <v>596</v>
+      </c>
+      <c r="J44" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -4265,8 +5231,14 @@
       <c r="F45" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="61">
+      <c r="I45" t="s">
+        <v>600</v>
+      </c>
+      <c r="J45" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
@@ -4285,8 +5257,14 @@
       <c r="F46" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="46">
+      <c r="I46" t="s">
+        <v>595</v>
+      </c>
+      <c r="J46" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -4302,8 +5280,14 @@
       <c r="F47" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="I47" t="s">
+        <v>600</v>
+      </c>
+      <c r="J47" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>239</v>
       </c>
@@ -4322,8 +5306,14 @@
       <c r="F48" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="31">
+      <c r="I48" t="s">
+        <v>596</v>
+      </c>
+      <c r="J48" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>132</v>
       </c>
@@ -4342,8 +5332,14 @@
       <c r="F49" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="31">
+      <c r="I49" t="s">
+        <v>595</v>
+      </c>
+      <c r="J49" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>273</v>
       </c>
@@ -4362,8 +5358,14 @@
       <c r="F50" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="31">
+      <c r="I50" t="s">
+        <v>595</v>
+      </c>
+      <c r="J50" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>274</v>
       </c>
@@ -4379,8 +5381,14 @@
       <c r="F51" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="31">
+      <c r="I51" t="s">
+        <v>595</v>
+      </c>
+      <c r="J51" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>275</v>
       </c>
@@ -4396,8 +5404,14 @@
       <c r="F52" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="61">
+      <c r="I52" t="s">
+        <v>595</v>
+      </c>
+      <c r="J52" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +5427,14 @@
       <c r="F53" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="61">
+      <c r="I53" t="s">
+        <v>595</v>
+      </c>
+      <c r="J53" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -4433,8 +5453,14 @@
       <c r="F54" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="31">
+      <c r="I54" t="s">
+        <v>598</v>
+      </c>
+      <c r="J54" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -4453,8 +5479,14 @@
       <c r="F55" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="46">
+      <c r="I55" t="s">
+        <v>595</v>
+      </c>
+      <c r="J55" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>159</v>
       </c>
@@ -4473,8 +5505,14 @@
       <c r="F56" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="46">
+      <c r="I56" t="s">
+        <v>595</v>
+      </c>
+      <c r="J56" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
@@ -4493,8 +5531,14 @@
       <c r="F57" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="31">
+      <c r="I57" t="s">
+        <v>595</v>
+      </c>
+      <c r="J57" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>237</v>
       </c>
@@ -4513,8 +5557,14 @@
       <c r="F58" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="31">
+      <c r="I58" t="s">
+        <v>600</v>
+      </c>
+      <c r="J58" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
@@ -4533,8 +5583,14 @@
       <c r="F59" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="31">
+      <c r="I59" t="s">
+        <v>595</v>
+      </c>
+      <c r="J59" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -4553,8 +5609,14 @@
       <c r="F60" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="31">
+      <c r="I60" t="s">
+        <v>595</v>
+      </c>
+      <c r="J60" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
@@ -4570,8 +5632,14 @@
       <c r="F61" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="46">
+      <c r="I61" t="s">
+        <v>596</v>
+      </c>
+      <c r="J61" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>109</v>
       </c>
@@ -4590,8 +5658,14 @@
       <c r="F62" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="46">
+      <c r="I62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J62" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>35</v>
       </c>
@@ -4607,8 +5681,14 @@
       <c r="F63" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="46">
+      <c r="I63" t="s">
+        <v>598</v>
+      </c>
+      <c r="J63" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -4627,8 +5707,14 @@
       <c r="F64" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="I64" t="s">
+        <v>600</v>
+      </c>
+      <c r="J64" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
@@ -4647,8 +5733,14 @@
       <c r="F65" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="46">
+      <c r="I65" t="s">
+        <v>600</v>
+      </c>
+      <c r="J65" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>123</v>
       </c>
@@ -4664,8 +5756,14 @@
       <c r="F66" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="61">
+      <c r="I66" t="s">
+        <v>600</v>
+      </c>
+      <c r="J66" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>164</v>
       </c>
@@ -4681,8 +5779,14 @@
       <c r="F67" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="31">
+      <c r="I67" t="s">
+        <v>595</v>
+      </c>
+      <c r="J67" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
@@ -4701,8 +5805,14 @@
       <c r="F68" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="46">
+      <c r="I68" t="s">
+        <v>595</v>
+      </c>
+      <c r="J68" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>103</v>
       </c>
@@ -4721,8 +5831,14 @@
       <c r="F69" s="7" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="46">
+      <c r="I69" t="s">
+        <v>595</v>
+      </c>
+      <c r="J69" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
@@ -4741,8 +5857,14 @@
       <c r="F70" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="31">
+      <c r="I70" t="s">
+        <v>600</v>
+      </c>
+      <c r="J70" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -4758,8 +5880,14 @@
       <c r="F71" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="61">
+      <c r="I71" t="s">
+        <v>595</v>
+      </c>
+      <c r="J71" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -4778,8 +5906,14 @@
       <c r="F72" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="46">
+      <c r="I72" t="s">
+        <v>596</v>
+      </c>
+      <c r="J72" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>137</v>
       </c>
@@ -4798,8 +5932,14 @@
       <c r="F73" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="31">
+      <c r="I73" t="s">
+        <v>595</v>
+      </c>
+      <c r="J73" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>218</v>
       </c>
@@ -4818,8 +5958,14 @@
       <c r="F74" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="61">
+      <c r="I74" t="s">
+        <v>600</v>
+      </c>
+      <c r="J74" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>50</v>
       </c>
@@ -4838,8 +5984,14 @@
       <c r="F75" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="46">
+      <c r="I75" t="s">
+        <v>595</v>
+      </c>
+      <c r="J75" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
@@ -4855,8 +6007,14 @@
       <c r="F76" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="46">
+      <c r="I76" t="s">
+        <v>595</v>
+      </c>
+      <c r="J76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>178</v>
       </c>
@@ -4875,8 +6033,14 @@
       <c r="F77" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="61">
+      <c r="I77" t="s">
+        <v>596</v>
+      </c>
+      <c r="J77" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>23</v>
       </c>
@@ -4892,8 +6056,14 @@
       <c r="F78" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="106">
+      <c r="I78" t="s">
+        <v>600</v>
+      </c>
+      <c r="J78" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="111" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>189</v>
       </c>
@@ -4912,8 +6082,14 @@
       <c r="F79" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="46">
+      <c r="I79" t="s">
+        <v>595</v>
+      </c>
+      <c r="J79" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -4932,8 +6108,14 @@
       <c r="F80" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="61">
+      <c r="I80" t="s">
+        <v>595</v>
+      </c>
+      <c r="J80" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>151</v>
       </c>
@@ -4952,8 +6134,14 @@
       <c r="F81" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="61">
+      <c r="I81" t="s">
+        <v>596</v>
+      </c>
+      <c r="J81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
@@ -4972,8 +6160,14 @@
       <c r="F82" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="31">
+      <c r="I82" t="s">
+        <v>595</v>
+      </c>
+      <c r="J82" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>173</v>
       </c>
@@ -4992,8 +6186,14 @@
       <c r="F83" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="46">
+      <c r="I83" t="s">
+        <v>595</v>
+      </c>
+      <c r="J83" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>186</v>
       </c>
@@ -5012,8 +6212,14 @@
       <c r="F84" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="46">
+      <c r="I84" t="s">
+        <v>596</v>
+      </c>
+      <c r="J84" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
@@ -5029,8 +6235,14 @@
       <c r="F85" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="I85" t="s">
+        <v>596</v>
+      </c>
+      <c r="J85" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>211</v>
       </c>
@@ -5049,8 +6261,14 @@
       <c r="F86" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="I86" t="s">
+        <v>597</v>
+      </c>
+      <c r="J86" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>157</v>
       </c>
@@ -5069,8 +6287,14 @@
       <c r="F87" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="31">
+      <c r="I87" t="s">
+        <v>595</v>
+      </c>
+      <c r="J87" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>165</v>
       </c>
@@ -5086,8 +6310,14 @@
       <c r="F88" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="I88" t="s">
+        <v>600</v>
+      </c>
+      <c r="J88" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>244</v>
       </c>
@@ -5106,8 +6336,14 @@
       <c r="F89" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="46">
+      <c r="I89" t="s">
+        <v>595</v>
+      </c>
+      <c r="J89" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>200</v>
       </c>
@@ -5126,8 +6362,14 @@
       <c r="F90" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="31">
+      <c r="I90" t="s">
+        <v>600</v>
+      </c>
+      <c r="J90" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>163</v>
       </c>
@@ -5143,8 +6385,14 @@
       <c r="F91" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="31">
+      <c r="I91" t="s">
+        <v>596</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>73</v>
       </c>
@@ -5163,8 +6411,14 @@
       <c r="F92" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="46">
+      <c r="I92" t="s">
+        <v>600</v>
+      </c>
+      <c r="J92" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>175</v>
       </c>
@@ -5183,8 +6437,14 @@
       <c r="F93" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="91">
+      <c r="I93" t="s">
+        <v>596</v>
+      </c>
+      <c r="J93" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="95.25" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -5203,8 +6463,14 @@
       <c r="F94" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="76">
+      <c r="I94" t="s">
+        <v>600</v>
+      </c>
+      <c r="J94" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="79.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>61</v>
       </c>
@@ -5223,8 +6489,14 @@
       <c r="F95" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="61">
+      <c r="I95" t="s">
+        <v>600</v>
+      </c>
+      <c r="J95" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -5240,8 +6512,14 @@
       <c r="F96" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="46">
+      <c r="I96" t="s">
+        <v>595</v>
+      </c>
+      <c r="J96" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>184</v>
       </c>
@@ -5260,8 +6538,14 @@
       <c r="F97" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="46">
+      <c r="I97" t="s">
+        <v>595</v>
+      </c>
+      <c r="J97" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>158</v>
       </c>
@@ -5280,8 +6564,14 @@
       <c r="F98" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="31">
+      <c r="I98" t="s">
+        <v>599</v>
+      </c>
+      <c r="J98" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -5297,8 +6587,14 @@
       <c r="F99" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="I99" t="s">
+        <v>596</v>
+      </c>
+      <c r="J99" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>170</v>
       </c>
@@ -5317,8 +6613,14 @@
       <c r="F100" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="31">
+      <c r="I100" t="s">
+        <v>595</v>
+      </c>
+      <c r="J100" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>112</v>
       </c>
@@ -5337,8 +6639,14 @@
       <c r="F101" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="I101" t="s">
+        <v>600</v>
+      </c>
+      <c r="J101" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>183</v>
       </c>
@@ -5354,8 +6662,14 @@
       <c r="F102" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="61">
+      <c r="I102" t="s">
+        <v>597</v>
+      </c>
+      <c r="J102" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>193</v>
       </c>
@@ -5371,8 +6685,14 @@
       <c r="F103" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="46">
+      <c r="I103" t="s">
+        <v>595</v>
+      </c>
+      <c r="J103" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -5391,8 +6711,14 @@
       <c r="F104" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="46">
+      <c r="I104" t="s">
+        <v>595</v>
+      </c>
+      <c r="J104" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>231</v>
       </c>
@@ -5411,8 +6737,14 @@
       <c r="F105" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="46">
+      <c r="I105" t="s">
+        <v>595</v>
+      </c>
+      <c r="J105" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>229</v>
       </c>
@@ -5428,8 +6760,14 @@
       <c r="F106" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="46">
+      <c r="I106" t="s">
+        <v>595</v>
+      </c>
+      <c r="J106" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>348</v>
       </c>
@@ -5445,8 +6783,14 @@
       <c r="F107" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="46">
+      <c r="I107" t="s">
+        <v>595</v>
+      </c>
+      <c r="J107" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -5465,8 +6809,14 @@
       <c r="F108" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="61">
+      <c r="I108" t="s">
+        <v>595</v>
+      </c>
+      <c r="J108" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>219</v>
       </c>
@@ -5485,8 +6835,14 @@
       <c r="F109" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="46">
+      <c r="I109" t="s">
+        <v>595</v>
+      </c>
+      <c r="J109" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>167</v>
       </c>
@@ -5505,8 +6861,14 @@
       <c r="F110" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="61">
+      <c r="I110" t="s">
+        <v>595</v>
+      </c>
+      <c r="J110" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>75</v>
       </c>
@@ -5525,8 +6887,14 @@
       <c r="F111" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="61">
+      <c r="I111" t="s">
+        <v>600</v>
+      </c>
+      <c r="J111" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>105</v>
       </c>
@@ -5545,8 +6913,14 @@
       <c r="F112" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="I112" t="s">
+        <v>595</v>
+      </c>
+      <c r="J112" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>62</v>
       </c>
@@ -5565,8 +6939,14 @@
       <c r="F113" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="46">
+      <c r="I113" t="s">
+        <v>597</v>
+      </c>
+      <c r="J113" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>210</v>
       </c>
@@ -5582,8 +6962,14 @@
       <c r="F114" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="31">
+      <c r="I114" t="s">
+        <v>600</v>
+      </c>
+      <c r="J114" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>148</v>
       </c>
@@ -5602,8 +6988,14 @@
       <c r="F115" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="31">
+      <c r="I115" t="s">
+        <v>595</v>
+      </c>
+      <c r="J115" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>66</v>
       </c>
@@ -5622,8 +7014,14 @@
       <c r="F116" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="61">
+      <c r="I116" t="s">
+        <v>596</v>
+      </c>
+      <c r="J116" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>32</v>
       </c>
@@ -5639,8 +7037,14 @@
       <c r="F117" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="46">
+      <c r="I117" t="s">
+        <v>596</v>
+      </c>
+      <c r="J117" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -5659,8 +7063,14 @@
       <c r="F118" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="76">
+      <c r="I118" t="s">
+        <v>600</v>
+      </c>
+      <c r="J118" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="79.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>150</v>
       </c>
@@ -5679,8 +7089,14 @@
       <c r="F119" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="46">
+      <c r="I119" t="s">
+        <v>595</v>
+      </c>
+      <c r="J119" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>366</v>
       </c>
@@ -5699,8 +7115,14 @@
       <c r="F120" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="46">
+      <c r="I120" t="s">
+        <v>598</v>
+      </c>
+      <c r="J120" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>367</v>
       </c>
@@ -5719,8 +7141,14 @@
       <c r="F121" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="46">
+      <c r="I121" t="s">
+        <v>595</v>
+      </c>
+      <c r="J121" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>57</v>
       </c>
@@ -5739,8 +7167,14 @@
       <c r="F122" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="31">
+      <c r="I122" t="s">
+        <v>595</v>
+      </c>
+      <c r="J122" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>232</v>
       </c>
@@ -5759,8 +7193,14 @@
       <c r="F123" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="31">
+      <c r="I123" t="s">
+        <v>595</v>
+      </c>
+      <c r="J123" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>26</v>
       </c>
@@ -5776,8 +7216,14 @@
       <c r="F124" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="46">
+      <c r="I124" t="s">
+        <v>600</v>
+      </c>
+      <c r="J124" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>166</v>
       </c>
@@ -5796,8 +7242,14 @@
       <c r="F125" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="61">
+      <c r="I125" t="s">
+        <v>600</v>
+      </c>
+      <c r="J125" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -5813,8 +7265,14 @@
       <c r="F126" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="46">
+      <c r="I126" t="s">
+        <v>595</v>
+      </c>
+      <c r="J126" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>138</v>
       </c>
@@ -5830,8 +7288,14 @@
       <c r="F127" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="76">
+      <c r="I127" t="s">
+        <v>595</v>
+      </c>
+      <c r="J127" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="79.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>205</v>
       </c>
@@ -5847,8 +7311,14 @@
       <c r="F128" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="46">
+      <c r="I128" t="s">
+        <v>600</v>
+      </c>
+      <c r="J128" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>124</v>
       </c>
@@ -5867,8 +7337,14 @@
       <c r="F129" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="46">
+      <c r="I129" t="s">
+        <v>595</v>
+      </c>
+      <c r="J129" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>248</v>
       </c>
@@ -5884,8 +7360,14 @@
       <c r="F130" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="46">
+      <c r="I130" t="s">
+        <v>600</v>
+      </c>
+      <c r="J130" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>68</v>
       </c>
@@ -5904,8 +7386,14 @@
       <c r="F131" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="31">
+      <c r="I131" t="s">
+        <v>595</v>
+      </c>
+      <c r="J131" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>117</v>
       </c>
@@ -5921,8 +7409,14 @@
       <c r="F132" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="76">
+      <c r="I132" t="s">
+        <v>595</v>
+      </c>
+      <c r="J132" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="79.5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>96</v>
       </c>
@@ -5941,8 +7435,14 @@
       <c r="F133" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="46">
+      <c r="I133" t="s">
+        <v>595</v>
+      </c>
+      <c r="J133" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>185</v>
       </c>
@@ -5958,8 +7458,14 @@
       <c r="F134" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="46">
+      <c r="I134" t="s">
+        <v>600</v>
+      </c>
+      <c r="J134" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -5975,8 +7481,14 @@
       <c r="F135" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="31">
+      <c r="I135" t="s">
+        <v>598</v>
+      </c>
+      <c r="J135" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>93</v>
       </c>
@@ -5992,8 +7504,14 @@
       <c r="F136" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="31">
+      <c r="I136" t="s">
+        <v>596</v>
+      </c>
+      <c r="J136" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>127</v>
       </c>
@@ -6012,8 +7530,14 @@
       <c r="F137" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="31">
+      <c r="I137" t="s">
+        <v>597</v>
+      </c>
+      <c r="J137" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>383</v>
       </c>
@@ -6032,8 +7556,14 @@
       <c r="F138" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="31">
+      <c r="I138" t="s">
+        <v>597</v>
+      </c>
+      <c r="J138" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>74</v>
       </c>
@@ -6049,8 +7579,14 @@
       <c r="F139" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="31">
+      <c r="I139" t="s">
+        <v>600</v>
+      </c>
+      <c r="J139" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
@@ -6069,8 +7605,14 @@
       <c r="F140" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="61">
+      <c r="I140" t="s">
+        <v>595</v>
+      </c>
+      <c r="J140" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>125</v>
       </c>
@@ -6089,8 +7631,14 @@
       <c r="F141" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="31">
+      <c r="I141" t="s">
+        <v>595</v>
+      </c>
+      <c r="J141" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
@@ -6106,8 +7654,14 @@
       <c r="F142" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="31">
+      <c r="I142" t="s">
+        <v>597</v>
+      </c>
+      <c r="J142" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>247</v>
       </c>
@@ -6123,8 +7677,14 @@
       <c r="F143" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="31">
+      <c r="I143" t="s">
+        <v>597</v>
+      </c>
+      <c r="J143" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>174</v>
       </c>
@@ -6143,8 +7703,14 @@
       <c r="F144" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="31">
+      <c r="I144" t="s">
+        <v>596</v>
+      </c>
+      <c r="J144" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>195</v>
       </c>
@@ -6160,8 +7726,14 @@
       <c r="F145" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="46">
+      <c r="I145" t="s">
+        <v>595</v>
+      </c>
+      <c r="J145" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>198</v>
       </c>
@@ -6180,8 +7752,14 @@
       <c r="F146" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="31">
+      <c r="I146" t="s">
+        <v>595</v>
+      </c>
+      <c r="J146" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>187</v>
       </c>
@@ -6197,8 +7775,14 @@
       <c r="F147" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="46">
+      <c r="I147" t="s">
+        <v>595</v>
+      </c>
+      <c r="J147" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -6214,8 +7798,14 @@
       <c r="F148" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="46">
+      <c r="I148" t="s">
+        <v>595</v>
+      </c>
+      <c r="J148" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
@@ -6234,8 +7824,14 @@
       <c r="F149" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="I149" t="s">
+        <v>595</v>
+      </c>
+      <c r="J149" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>216</v>
       </c>
@@ -6254,8 +7850,14 @@
       <c r="F150" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="31">
+      <c r="I150" t="s">
+        <v>596</v>
+      </c>
+      <c r="J150" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
@@ -6274,8 +7876,14 @@
       <c r="F151" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="31">
+      <c r="I151" t="s">
+        <v>595</v>
+      </c>
+      <c r="J151" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>140</v>
       </c>
@@ -6291,8 +7899,14 @@
       <c r="F152" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="46">
+      <c r="I152" t="s">
+        <v>600</v>
+      </c>
+      <c r="J152" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>263</v>
       </c>
@@ -6311,8 +7925,14 @@
       <c r="F153" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="31">
+      <c r="I153" t="s">
+        <v>595</v>
+      </c>
+      <c r="J153" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>217</v>
       </c>
@@ -6331,8 +7951,14 @@
       <c r="F154" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="31">
+      <c r="I154" t="s">
+        <v>595</v>
+      </c>
+      <c r="J154" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>139</v>
       </c>
@@ -6351,8 +7977,14 @@
       <c r="F155" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="31">
+      <c r="I155" t="s">
+        <v>595</v>
+      </c>
+      <c r="J155" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>171</v>
       </c>
@@ -6371,8 +8003,14 @@
       <c r="F156" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="31">
+      <c r="I156" t="s">
+        <v>595</v>
+      </c>
+      <c r="J156" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>133</v>
       </c>
@@ -6391,8 +8029,14 @@
       <c r="F157" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="I157" t="s">
+        <v>600</v>
+      </c>
+      <c r="J157" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>130</v>
       </c>
@@ -6408,8 +8052,14 @@
       <c r="F158" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="31">
+      <c r="I158" t="s">
+        <v>597</v>
+      </c>
+      <c r="J158" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>113</v>
       </c>
@@ -6428,8 +8078,14 @@
       <c r="F159" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="31">
+      <c r="I159" t="s">
+        <v>595</v>
+      </c>
+      <c r="J159" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>153</v>
       </c>
@@ -6448,8 +8104,14 @@
       <c r="F160" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="31">
+      <c r="I160" t="s">
+        <v>600</v>
+      </c>
+      <c r="J160" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -6468,8 +8130,14 @@
       <c r="F161" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="I161" t="s">
+        <v>595</v>
+      </c>
+      <c r="J161" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>235</v>
       </c>
@@ -6488,8 +8156,14 @@
       <c r="F162" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="61">
+      <c r="I162" t="s">
+        <v>597</v>
+      </c>
+      <c r="J162" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>80</v>
       </c>
@@ -6508,8 +8182,14 @@
       <c r="F163" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="61">
+      <c r="I163" t="s">
+        <v>595</v>
+      </c>
+      <c r="J163" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>106</v>
       </c>
@@ -6528,8 +8208,14 @@
       <c r="F164" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="31">
+      <c r="I164" t="s">
+        <v>595</v>
+      </c>
+      <c r="J164" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>475</v>
       </c>
@@ -6548,8 +8234,14 @@
       <c r="F165" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="46">
+      <c r="I165" t="s">
+        <v>596</v>
+      </c>
+      <c r="J165" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>267</v>
       </c>
@@ -6568,8 +8260,14 @@
       <c r="F166" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="61">
+      <c r="I166" t="s">
+        <v>600</v>
+      </c>
+      <c r="J166" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
@@ -6588,8 +8286,14 @@
       <c r="F167" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="46">
+      <c r="I167" t="s">
+        <v>595</v>
+      </c>
+      <c r="J167" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
@@ -6608,8 +8312,14 @@
       <c r="F168" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="31">
+      <c r="I168" t="s">
+        <v>595</v>
+      </c>
+      <c r="J168" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>55</v>
       </c>
@@ -6628,8 +8338,14 @@
       <c r="F169" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="46">
+      <c r="I169" t="s">
+        <v>600</v>
+      </c>
+      <c r="J169" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>17</v>
       </c>
@@ -6648,8 +8364,14 @@
       <c r="F170" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="46">
+      <c r="I170" t="s">
+        <v>595</v>
+      </c>
+      <c r="J170" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>77</v>
       </c>
@@ -6665,8 +8387,14 @@
       <c r="F171" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="46">
+      <c r="I171" t="s">
+        <v>600</v>
+      </c>
+      <c r="J171" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>31</v>
       </c>
@@ -6685,8 +8413,14 @@
       <c r="F172" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="46">
+      <c r="I172" t="s">
+        <v>596</v>
+      </c>
+      <c r="J172" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>25</v>
       </c>
@@ -6705,8 +8439,14 @@
       <c r="F173" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="61">
+      <c r="I173" t="s">
+        <v>595</v>
+      </c>
+      <c r="J173" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>45</v>
       </c>
@@ -6725,8 +8465,14 @@
       <c r="F174" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="46">
+      <c r="I174" t="s">
+        <v>595</v>
+      </c>
+      <c r="J174" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -6745,8 +8491,14 @@
       <c r="F175" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="31">
+      <c r="I175" t="s">
+        <v>600</v>
+      </c>
+      <c r="J175" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>98</v>
       </c>
@@ -6762,8 +8514,14 @@
       <c r="F176" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="46">
+      <c r="I176" t="s">
+        <v>595</v>
+      </c>
+      <c r="J176" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>85</v>
       </c>
@@ -6779,8 +8537,14 @@
       <c r="F177" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="46">
+      <c r="I177" t="s">
+        <v>600</v>
+      </c>
+      <c r="J177" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>48</v>
       </c>
@@ -6796,8 +8560,14 @@
       <c r="F178" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="46">
+      <c r="I178" t="s">
+        <v>600</v>
+      </c>
+      <c r="J178" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>94</v>
       </c>
@@ -6816,8 +8586,14 @@
       <c r="F179" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="31">
+      <c r="I179" t="s">
+        <v>600</v>
+      </c>
+      <c r="J179" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>149</v>
       </c>
@@ -6836,8 +8612,14 @@
       <c r="F180" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="46">
+      <c r="I180" t="s">
+        <v>600</v>
+      </c>
+      <c r="J180" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>129</v>
       </c>
@@ -6853,8 +8635,14 @@
       <c r="F181" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="46">
+      <c r="I181" t="s">
+        <v>596</v>
+      </c>
+      <c r="J181" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>225</v>
       </c>
@@ -6870,8 +8658,14 @@
       <c r="F182" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="31">
+      <c r="I182" t="s">
+        <v>595</v>
+      </c>
+      <c r="J182" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>208</v>
       </c>
@@ -6887,8 +8681,14 @@
       <c r="F183" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="46">
+      <c r="I183" t="s">
+        <v>598</v>
+      </c>
+      <c r="J183" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>194</v>
       </c>
@@ -6904,8 +8704,14 @@
       <c r="F184" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="46">
+      <c r="I184" t="s">
+        <v>598</v>
+      </c>
+      <c r="J184" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>38</v>
       </c>
@@ -6921,8 +8727,14 @@
       <c r="F185" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="61">
+      <c r="I185" t="s">
+        <v>595</v>
+      </c>
+      <c r="J185" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>240</v>
       </c>
@@ -6941,8 +8753,14 @@
       <c r="F186" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="31">
+      <c r="I186" t="s">
+        <v>596</v>
+      </c>
+      <c r="J186" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>176</v>
       </c>
@@ -6958,8 +8776,14 @@
       <c r="F187" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="91">
+      <c r="I187" t="s">
+        <v>600</v>
+      </c>
+      <c r="J187" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="95.25" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>202</v>
       </c>
@@ -6978,8 +8802,14 @@
       <c r="F188" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="46">
+      <c r="I188" t="s">
+        <v>595</v>
+      </c>
+      <c r="J188" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>227</v>
       </c>
@@ -6995,8 +8825,14 @@
       <c r="F189" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="61">
+      <c r="I189" t="s">
+        <v>595</v>
+      </c>
+      <c r="J189" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>71</v>
       </c>
@@ -7015,8 +8851,14 @@
       <c r="F190" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="31">
+      <c r="I190" t="s">
+        <v>600</v>
+      </c>
+      <c r="J190" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>118</v>
       </c>
@@ -7032,8 +8874,14 @@
       <c r="F191" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="46">
+      <c r="I191" t="s">
+        <v>600</v>
+      </c>
+      <c r="J191" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
@@ -7049,8 +8897,14 @@
       <c r="F192" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="31">
+      <c r="I192" t="s">
+        <v>600</v>
+      </c>
+      <c r="J192" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -7069,8 +8923,14 @@
       <c r="F193" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="46">
+      <c r="I193" t="s">
+        <v>600</v>
+      </c>
+      <c r="J193" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>15</v>
       </c>
@@ -7089,8 +8949,14 @@
       <c r="F194" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="31">
+      <c r="I194" t="s">
+        <v>596</v>
+      </c>
+      <c r="J194" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>107</v>
       </c>
@@ -7109,8 +8975,14 @@
       <c r="F195" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="31">
+      <c r="I195" t="s">
+        <v>597</v>
+      </c>
+      <c r="J195" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>51</v>
       </c>
@@ -7129,8 +9001,14 @@
       <c r="F196" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="31">
+      <c r="I196" t="s">
+        <v>595</v>
+      </c>
+      <c r="J196" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -7149,8 +9027,14 @@
       <c r="F197" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="31">
+      <c r="I197" t="s">
+        <v>600</v>
+      </c>
+      <c r="J197" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>101</v>
       </c>
@@ -7169,8 +9053,14 @@
       <c r="F198" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="31">
+      <c r="I198" t="s">
+        <v>595</v>
+      </c>
+      <c r="J198" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,8 +9079,14 @@
       <c r="F199" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="31">
+      <c r="I199" t="s">
+        <v>600</v>
+      </c>
+      <c r="J199" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>215</v>
       </c>
@@ -7206,8 +9102,14 @@
       <c r="F200" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="31">
+      <c r="I200" t="s">
+        <v>595</v>
+      </c>
+      <c r="J200" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>131</v>
       </c>
@@ -7223,8 +9125,14 @@
       <c r="F201" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="46">
+      <c r="I201" t="s">
+        <v>596</v>
+      </c>
+      <c r="J201" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>59</v>
       </c>
@@ -7240,8 +9148,14 @@
       <c r="F202" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="31">
+      <c r="I202" t="s">
+        <v>600</v>
+      </c>
+      <c r="J202" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>76</v>
       </c>
@@ -7257,8 +9171,14 @@
       <c r="F203" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="46">
+      <c r="I203" t="s">
+        <v>600</v>
+      </c>
+      <c r="J203" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>209</v>
       </c>
@@ -7277,8 +9197,14 @@
       <c r="F204" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="46">
+      <c r="I204" t="s">
+        <v>595</v>
+      </c>
+      <c r="J204" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>243</v>
       </c>
@@ -7294,8 +9220,14 @@
       <c r="F205" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="61">
+      <c r="I205" t="s">
+        <v>595</v>
+      </c>
+      <c r="J205" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>81</v>
       </c>
@@ -7311,8 +9243,14 @@
       <c r="F206" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="31">
+      <c r="I206" t="s">
+        <v>600</v>
+      </c>
+      <c r="J206" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>191</v>
       </c>
@@ -7328,8 +9266,14 @@
       <c r="F207" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="31">
+      <c r="I207" t="s">
+        <v>600</v>
+      </c>
+      <c r="J207" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>114</v>
       </c>
@@ -7348,8 +9292,14 @@
       <c r="F208" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="31">
+      <c r="I208" t="s">
+        <v>595</v>
+      </c>
+      <c r="J208" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>92</v>
       </c>
@@ -7365,8 +9315,14 @@
       <c r="F209" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="61">
+      <c r="I209" t="s">
+        <v>595</v>
+      </c>
+      <c r="J209" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>249</v>
       </c>
@@ -7385,8 +9341,14 @@
       <c r="F210" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="46">
+      <c r="I210" t="s">
+        <v>595</v>
+      </c>
+      <c r="J210" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>53</v>
       </c>
@@ -7405,8 +9367,14 @@
       <c r="F211" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="46">
+      <c r="I211" t="s">
+        <v>595</v>
+      </c>
+      <c r="J211" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>97</v>
       </c>
@@ -7422,8 +9390,14 @@
       <c r="F212" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="31">
+      <c r="I212" t="s">
+        <v>600</v>
+      </c>
+      <c r="J212" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>459</v>
       </c>
@@ -7439,8 +9413,14 @@
       <c r="F213" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="31">
+      <c r="I213" t="s">
+        <v>595</v>
+      </c>
+      <c r="J213" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>111</v>
       </c>
@@ -7456,8 +9436,14 @@
       <c r="F214" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="31">
+      <c r="I214" t="s">
+        <v>595</v>
+      </c>
+      <c r="J214" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>18</v>
       </c>
@@ -7476,8 +9462,14 @@
       <c r="F215" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="61">
+      <c r="I215" t="s">
+        <v>595</v>
+      </c>
+      <c r="J215" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>36</v>
       </c>
@@ -7493,8 +9485,14 @@
       <c r="F216" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="61">
+      <c r="I216" t="s">
+        <v>595</v>
+      </c>
+      <c r="J216" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>462</v>
       </c>
@@ -7510,8 +9508,14 @@
       <c r="F217" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="31">
+      <c r="I217" t="s">
+        <v>595</v>
+      </c>
+      <c r="J217" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>136</v>
       </c>
@@ -7527,8 +9531,14 @@
       <c r="F218" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="I218" t="s">
+        <v>596</v>
+      </c>
+      <c r="J218" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>233</v>
       </c>
@@ -7544,8 +9554,14 @@
       <c r="F219" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="31">
+      <c r="I219" t="s">
+        <v>600</v>
+      </c>
+      <c r="J219" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>54</v>
       </c>
@@ -7564,8 +9580,14 @@
       <c r="F220" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="31">
+      <c r="I220" t="s">
+        <v>599</v>
+      </c>
+      <c r="J220" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>91</v>
       </c>
@@ -7584,8 +9606,14 @@
       <c r="F221" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="31">
+      <c r="I221" t="s">
+        <v>600</v>
+      </c>
+      <c r="J221" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>206</v>
       </c>
@@ -7601,8 +9629,14 @@
       <c r="F222" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="46">
+      <c r="I222" t="s">
+        <v>595</v>
+      </c>
+      <c r="J222" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>104</v>
       </c>
@@ -7618,8 +9652,14 @@
       <c r="F223" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="61">
+      <c r="I223" t="s">
+        <v>596</v>
+      </c>
+      <c r="J223" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>241</v>
       </c>
@@ -7635,8 +9675,14 @@
       <c r="F224" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="31">
+      <c r="I224" t="s">
+        <v>598</v>
+      </c>
+      <c r="J224" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>0</v>
       </c>
@@ -7652,8 +9698,14 @@
       <c r="F225" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="46">
+      <c r="I225" t="s">
+        <v>597</v>
+      </c>
+      <c r="J225" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>119</v>
       </c>
@@ -7672,8 +9724,14 @@
       <c r="F226" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="31">
+      <c r="I226" t="s">
+        <v>596</v>
+      </c>
+      <c r="J226" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>169</v>
       </c>
@@ -7692,8 +9750,14 @@
       <c r="F227" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="46">
+      <c r="I227" t="s">
+        <v>595</v>
+      </c>
+      <c r="J227" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>43</v>
       </c>
@@ -7712,8 +9776,14 @@
       <c r="F228" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="I228" t="s">
+        <v>595</v>
+      </c>
+      <c r="J228" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>116</v>
       </c>
@@ -7732,8 +9802,14 @@
       <c r="F229" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="46">
+      <c r="I229" t="s">
+        <v>595</v>
+      </c>
+      <c r="J229" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>64</v>
       </c>
@@ -7749,8 +9825,14 @@
       <c r="F230" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="31">
+      <c r="I230" t="s">
+        <v>600</v>
+      </c>
+      <c r="J230" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>204</v>
       </c>
@@ -7769,8 +9851,14 @@
       <c r="F231" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="I231" t="s">
+        <v>596</v>
+      </c>
+      <c r="J231" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>155</v>
       </c>
@@ -7786,8 +9874,14 @@
       <c r="F232" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="46">
+      <c r="I232" t="s">
+        <v>597</v>
+      </c>
+      <c r="J232" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>1</v>
       </c>
@@ -7806,8 +9900,14 @@
       <c r="F233" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="31">
+      <c r="I233" t="s">
+        <v>595</v>
+      </c>
+      <c r="J233" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>10</v>
       </c>
@@ -7826,8 +9926,14 @@
       <c r="F234" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="I234" t="s">
+        <v>600</v>
+      </c>
+      <c r="J234" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>39</v>
       </c>
@@ -7843,8 +9949,14 @@
       <c r="F235" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="31">
+      <c r="I235" t="s">
+        <v>595</v>
+      </c>
+      <c r="J235" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>63</v>
       </c>
@@ -7860,8 +9972,14 @@
       <c r="F236" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="46">
+      <c r="I236" t="s">
+        <v>598</v>
+      </c>
+      <c r="J236" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>252</v>
       </c>
@@ -7880,8 +9998,14 @@
       <c r="F237" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="31">
+      <c r="I237" t="s">
+        <v>600</v>
+      </c>
+      <c r="J237" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>160</v>
       </c>
@@ -7897,8 +10021,14 @@
       <c r="F238" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="46">
+      <c r="I238" t="s">
+        <v>595</v>
+      </c>
+      <c r="J238" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>37</v>
       </c>
@@ -7914,8 +10044,14 @@
       <c r="F239" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="31">
+      <c r="I239" t="s">
+        <v>600</v>
+      </c>
+      <c r="J239" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>14</v>
       </c>
@@ -7931,8 +10067,14 @@
       <c r="F240" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="31">
+      <c r="I240" t="s">
+        <v>600</v>
+      </c>
+      <c r="J240" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>134</v>
       </c>
@@ -7951,8 +10093,14 @@
       <c r="F241" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="31">
+      <c r="I241" t="s">
+        <v>600</v>
+      </c>
+      <c r="J241" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>180</v>
       </c>
@@ -7968,8 +10116,14 @@
       <c r="F242" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="46">
+      <c r="I242" t="s">
+        <v>595</v>
+      </c>
+      <c r="J242" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>161</v>
       </c>
@@ -7988,8 +10142,14 @@
       <c r="F243" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="31">
+      <c r="I243" t="s">
+        <v>596</v>
+      </c>
+      <c r="J243" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>220</v>
       </c>
@@ -8008,8 +10168,14 @@
       <c r="F244" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="I244" t="s">
+        <v>595</v>
+      </c>
+      <c r="J244" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>30</v>
       </c>
@@ -8028,8 +10194,14 @@
       <c r="F245" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="46">
+      <c r="I245" t="s">
+        <v>598</v>
+      </c>
+      <c r="J245" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>213</v>
       </c>
@@ -8045,8 +10217,14 @@
       <c r="F246" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="31">
+      <c r="I246" t="s">
+        <v>595</v>
+      </c>
+      <c r="J246" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>156</v>
       </c>
@@ -8065,8 +10243,14 @@
       <c r="F247" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="I247" t="s">
+        <v>599</v>
+      </c>
+      <c r="J247" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>154</v>
       </c>
@@ -8082,8 +10266,14 @@
       <c r="F248" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="31">
+      <c r="I248" t="s">
+        <v>597</v>
+      </c>
+      <c r="J248" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>197</v>
       </c>
@@ -8102,8 +10292,14 @@
       <c r="F249" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="I249" t="s">
+        <v>597</v>
+      </c>
+      <c r="J249" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>196</v>
       </c>
@@ -8119,8 +10315,14 @@
       <c r="F250" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="31">
+      <c r="I250" t="s">
+        <v>597</v>
+      </c>
+      <c r="J250" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>27</v>
       </c>
@@ -8136,8 +10338,14 @@
       <c r="F251" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="I251" t="s">
+        <v>600</v>
+      </c>
+      <c r="J251" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>144</v>
       </c>
@@ -8153,8 +10361,14 @@
       <c r="F252" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="46">
+      <c r="I252" t="s">
+        <v>596</v>
+      </c>
+      <c r="J252" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>238</v>
       </c>
@@ -8173,8 +10387,14 @@
       <c r="F253" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="46">
+      <c r="I253" t="s">
+        <v>596</v>
+      </c>
+      <c r="J253" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>188</v>
       </c>
@@ -8190,8 +10410,14 @@
       <c r="F254" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="46">
+      <c r="I254" t="s">
+        <v>595</v>
+      </c>
+      <c r="J254" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>108</v>
       </c>
@@ -8207,8 +10433,14 @@
       <c r="F255" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="76">
+      <c r="I255" t="s">
+        <v>598</v>
+      </c>
+      <c r="J255" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="79.5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>221</v>
       </c>
@@ -8227,8 +10459,14 @@
       <c r="F256" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="I256" t="s">
+        <v>595</v>
+      </c>
+      <c r="J256" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>242</v>
       </c>
@@ -8244,8 +10482,14 @@
       <c r="F257" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="31">
+      <c r="I257" t="s">
+        <v>599</v>
+      </c>
+      <c r="J257" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -8261,8 +10505,14 @@
       <c r="F258" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="31">
+      <c r="I258" t="s">
+        <v>600</v>
+      </c>
+      <c r="J258" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>4</v>
       </c>
@@ -8278,8 +10528,14 @@
       <c r="F259" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="31">
+      <c r="I259" t="s">
+        <v>596</v>
+      </c>
+      <c r="J259" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>86</v>
       </c>
@@ -8298,8 +10554,14 @@
       <c r="F260" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="46">
+      <c r="I260" t="s">
+        <v>596</v>
+      </c>
+      <c r="J260" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>20</v>
       </c>
@@ -8318,8 +10580,14 @@
       <c r="F261" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="31">
+      <c r="I261" t="s">
+        <v>595</v>
+      </c>
+      <c r="J261" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>13</v>
       </c>
@@ -8338,8 +10606,14 @@
       <c r="F262" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="I262" t="s">
+        <v>595</v>
+      </c>
+      <c r="J262" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>513</v>
       </c>
@@ -8355,8 +10629,14 @@
       <c r="F263" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="31">
+      <c r="I263" t="s">
+        <v>595</v>
+      </c>
+      <c r="J263" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>234</v>
       </c>
@@ -8375,8 +10655,14 @@
       <c r="F264" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="I264" t="s">
+        <v>600</v>
+      </c>
+      <c r="J264" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>276</v>
       </c>
@@ -8395,8 +10681,14 @@
       <c r="F265" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="31">
+      <c r="I265" t="s">
+        <v>595</v>
+      </c>
+      <c r="J265" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>115</v>
       </c>
@@ -8415,8 +10707,14 @@
       <c r="F266" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="46">
+      <c r="I266" t="s">
+        <v>595</v>
+      </c>
+      <c r="J266" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>7</v>
       </c>
@@ -8432,8 +10730,14 @@
       <c r="F267" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="46">
+      <c r="I267" t="s">
+        <v>595</v>
+      </c>
+      <c r="J267" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>99</v>
       </c>
@@ -8452,8 +10756,14 @@
       <c r="F268" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="31">
+      <c r="I268" t="s">
+        <v>600</v>
+      </c>
+      <c r="J268" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>87</v>
       </c>
@@ -8472,8 +10782,14 @@
       <c r="F269" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="46">
+      <c r="I269" t="s">
+        <v>595</v>
+      </c>
+      <c r="J269" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>181</v>
       </c>
@@ -8489,8 +10805,14 @@
       <c r="F270" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="I270" t="s">
+        <v>598</v>
+      </c>
+      <c r="J270" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>236</v>
       </c>
@@ -8506,8 +10828,14 @@
       <c r="F271" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="31">
+      <c r="I271" t="s">
+        <v>597</v>
+      </c>
+      <c r="J271" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>250</v>
       </c>
@@ -8526,48 +10854,54 @@
       <c r="F272" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="273" spans="4:5">
+      <c r="I272" t="s">
+        <v>600</v>
+      </c>
+      <c r="J272" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="4:5">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
     </row>
-    <row r="275" spans="4:5">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
     </row>
-    <row r="276" spans="4:5">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
     </row>
-    <row r="277" spans="4:5">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
     </row>
-    <row r="278" spans="4:5">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
     </row>
-    <row r="279" spans="4:5">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="4:5">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="4:5">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="4:5">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
     </row>
-    <row r="283" spans="4:5">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
     </row>
